--- a/Учет контрольных/ПиОА Квантиль (Контрольная работа 2) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Квантиль (Контрольная работа 2) DIV100.xlsx
@@ -507,13 +507,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -565,7 +565,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>7.000000000000001</v>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -663,13 +663,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>12</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>8</v>
@@ -897,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
         <v>8</v>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1007,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
@@ -1053,7 +1053,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -1209,13 +1209,13 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -1319,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
         <v>12</v>
@@ -1443,13 +1443,13 @@
         <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
         <v>16</v>
@@ -1469,13 +1469,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
         <v>11</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="n">
         <v>13</v>
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>7.000000000000001</v>
@@ -1631,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
         <v>7.000000000000001</v>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -1813,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="n">
         <v>12</v>
@@ -1859,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
         <v>9</v>
@@ -1943,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
         <v>12</v>
@@ -1963,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -2015,13 +2015,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G61" t="n">
         <v>13</v>
@@ -2093,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" t="n">
         <v>14</v>
@@ -2145,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
         <v>13</v>
@@ -2249,13 +2249,13 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
@@ -2405,13 +2405,13 @@
         <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="n">
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G76" t="n">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -2463,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" t="n">
         <v>17</v>
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
         <v>14</v>
@@ -2509,13 +2509,13 @@
         <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G80" t="n">
         <v>10</v>
@@ -2671,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="n">
         <v>10</v>
@@ -2691,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
         <v>15</v>
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -2827,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="F92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="n">
         <v>11</v>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
@@ -2931,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="n">
         <v>12</v>
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n">
         <v>14</v>
@@ -3035,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" t="n">
         <v>10</v>
@@ -3087,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="n">
         <v>12</v>
@@ -3107,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E103" t="n">
         <v>14</v>
@@ -3133,13 +3133,13 @@
         <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" t="n">
         <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -3217,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G107" t="n">
         <v>10</v>
@@ -3237,13 +3237,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>7.000000000000001</v>
@@ -3263,7 +3263,7 @@
         <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -3295,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
@@ -3315,13 +3315,13 @@
         <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G111" t="n">
         <v>9</v>
@@ -3341,7 +3341,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>7.000000000000001</v>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G113" t="n">
         <v>10</v>
@@ -3393,13 +3393,13 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
         <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G114" t="n">
         <v>11</v>
@@ -3419,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115" t="n">
         <v>15</v>
@@ -3529,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="n">
         <v>11</v>
@@ -3549,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E128" t="n">
         <v>14</v>
@@ -3815,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="F130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="n">
         <v>14</v>
@@ -3835,7 +3835,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E131" t="n">
         <v>14</v>
@@ -3887,13 +3887,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
@@ -3913,13 +3913,13 @@
         <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="n">
         <v>11</v>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G134" t="n">
         <v>10</v>
@@ -3939,13 +3939,13 @@
         <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
       </c>
       <c r="F135" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G135" t="n">
         <v>16</v>
@@ -3997,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="F137" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G137" t="n">
         <v>11</v>
@@ -4017,13 +4017,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G138" t="n">
         <v>8</v>
@@ -4127,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" t="n">
         <v>13</v>
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G143" t="n">
         <v>13</v>
@@ -4179,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="F144" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G144" t="n">
         <v>11</v>
@@ -4205,7 +4205,7 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
@@ -4225,7 +4225,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="D147" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="n">
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G147" t="n">
         <v>16</v>
@@ -4277,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E148" t="n">
         <v>15</v>
@@ -4335,7 +4335,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G150" t="n">
         <v>9</v>
@@ -4413,7 +4413,7 @@
         <v>8</v>
       </c>
       <c r="F153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -4433,13 +4433,13 @@
         <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G154" t="n">
         <v>10</v>
@@ -4485,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156" t="n">
         <v>14</v>
@@ -4517,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G157" t="n">
         <v>13</v>
@@ -4543,7 +4543,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G158" t="n">
         <v>8</v>
@@ -4563,13 +4563,13 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -4589,13 +4589,13 @@
         <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="n">
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G160" t="n">
         <v>11</v>
@@ -4641,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -4719,7 +4719,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
         <v>6</v>
@@ -4751,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G166" t="n">
         <v>10</v>
@@ -4803,7 +4803,7 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G168" t="n">
         <v>11</v>
@@ -4855,7 +4855,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G170" t="n">
         <v>15</v>
@@ -4875,13 +4875,13 @@
         <v>11</v>
       </c>
       <c r="D171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="n">
         <v>11</v>
       </c>
       <c r="F171" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G171" t="n">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4933,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="F173" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G173" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G174" t="n">
         <v>8</v>
@@ -5213,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
@@ -5239,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="D185" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
         <v>14</v>
@@ -5271,7 +5271,7 @@
         <v>13</v>
       </c>
       <c r="F186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="n">
         <v>13</v>
@@ -5297,7 +5297,7 @@
         <v>16</v>
       </c>
       <c r="F187" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G187" t="n">
         <v>14</v>
@@ -5317,13 +5317,13 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188" t="n">
         <v>8</v>
       </c>
       <c r="F188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G188" t="n">
         <v>9</v>
@@ -5369,13 +5369,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
       </c>
       <c r="F190" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -5395,13 +5395,13 @@
         <v>13</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
       </c>
       <c r="F191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="n">
         <v>12</v>
@@ -5427,7 +5427,7 @@
         <v>16</v>
       </c>
       <c r="F192" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G192" t="n">
         <v>14</v>
@@ -5453,7 +5453,7 @@
         <v>13</v>
       </c>
       <c r="F193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="n">
         <v>13</v>
@@ -5499,13 +5499,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
         <v>14</v>
       </c>
       <c r="F195" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G195" t="n">
         <v>13</v>
@@ -5525,13 +5525,13 @@
         <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G196" t="n">
         <v>7.000000000000001</v>
@@ -5551,13 +5551,13 @@
         <v>10</v>
       </c>
       <c r="D197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="n">
         <v>11</v>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G197" t="n">
         <v>11</v>
@@ -5577,13 +5577,13 @@
         <v>15</v>
       </c>
       <c r="D198" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E198" t="n">
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G198" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="F202" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G202" t="n">
         <v>13</v>
@@ -5713,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="F203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5759,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="F207" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G207" t="n">
         <v>10</v>
@@ -5843,7 +5843,7 @@
         <v>8</v>
       </c>
       <c r="F208" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G208" t="n">
         <v>9</v>
@@ -5869,7 +5869,7 @@
         <v>13</v>
       </c>
       <c r="F209" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="n">
         <v>12</v>
@@ -5895,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="F210" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="n">
         <v>12</v>
@@ -6045,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -6129,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="F219" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" t="n">
         <v>12</v>
@@ -6253,7 +6253,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -6285,7 +6285,7 @@
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G225" t="n">
         <v>8</v>
@@ -6305,13 +6305,13 @@
         <v>14</v>
       </c>
       <c r="D226" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
       </c>
       <c r="F226" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G226" t="n">
         <v>12</v>
@@ -6337,7 +6337,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G227" t="n">
         <v>9</v>
@@ -6357,13 +6357,13 @@
         <v>13</v>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
       </c>
       <c r="F228" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G228" t="n">
         <v>11</v>
@@ -6389,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="F229" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G229" t="n">
         <v>12</v>
@@ -6409,13 +6409,13 @@
         <v>8</v>
       </c>
       <c r="D230" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F230" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G230" t="n">
         <v>9</v>
@@ -6435,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -6467,7 +6467,7 @@
         <v>12</v>
       </c>
       <c r="F232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G232" t="n">
         <v>13</v>
@@ -6487,13 +6487,13 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E233" t="n">
         <v>11</v>
       </c>
       <c r="F233" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G233" t="n">
         <v>11</v>
@@ -6519,7 +6519,7 @@
         <v>13</v>
       </c>
       <c r="F234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G234" t="n">
         <v>11</v>
@@ -6565,7 +6565,7 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236" t="n">
         <v>6</v>
@@ -6597,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="F237" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G237" t="n">
         <v>13</v>
@@ -6643,7 +6643,7 @@
         <v>5</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
         <v>3</v>
@@ -6747,7 +6747,7 @@
         <v>5</v>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -6805,7 +6805,7 @@
         <v>13</v>
       </c>
       <c r="F245" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245" t="n">
         <v>14</v>
@@ -6851,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="D247" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E247" t="n">
         <v>14</v>
@@ -6877,13 +6877,13 @@
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G248" t="n">
         <v>10</v>
@@ -6935,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="F250" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G250" t="n">
         <v>14</v>
@@ -6961,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="F251" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G251" t="n">
         <v>16</v>
@@ -6981,13 +6981,13 @@
         <v>13</v>
       </c>
       <c r="D252" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
       </c>
       <c r="F252" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G252" t="n">
         <v>13</v>
@@ -7033,13 +7033,13 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
       </c>
       <c r="F254" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G254" t="n">
         <v>9</v>
@@ -7059,7 +7059,7 @@
         <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -7091,7 +7091,7 @@
         <v>16</v>
       </c>
       <c r="F256" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G256" t="n">
         <v>15</v>
@@ -7117,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="F257" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G257" t="n">
         <v>12</v>
@@ -7169,7 +7169,7 @@
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G259" t="n">
         <v>10</v>
@@ -7299,7 +7299,7 @@
         <v>8</v>
       </c>
       <c r="F264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G264" t="n">
         <v>9</v>
@@ -7377,7 +7377,7 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G267" t="n">
         <v>10</v>
@@ -7403,7 +7403,7 @@
         <v>13</v>
       </c>
       <c r="F268" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G268" t="n">
         <v>13</v>
@@ -7429,7 +7429,7 @@
         <v>13</v>
       </c>
       <c r="F269" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G269" t="n">
         <v>11</v>
@@ -7507,7 +7507,7 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G272" t="n">
         <v>10</v>
@@ -7605,13 +7605,13 @@
         <v>12</v>
       </c>
       <c r="D276" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
       </c>
       <c r="F276" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G276" t="n">
         <v>11</v>
@@ -7657,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E278" t="n">
         <v>14</v>
@@ -7709,13 +7709,13 @@
         <v>17</v>
       </c>
       <c r="D280" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E280" t="n">
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G280" t="n">
         <v>16</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>12</v>
       </c>
       <c r="F284" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G284" t="n">
         <v>13</v>
@@ -7839,7 +7839,7 @@
         <v>16</v>
       </c>
       <c r="D285" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -7943,13 +7943,13 @@
         <v>17</v>
       </c>
       <c r="D289" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E289" t="n">
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G289" t="n">
         <v>16</v>
@@ -7969,7 +7969,7 @@
         <v>15</v>
       </c>
       <c r="D290" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E290" t="n">
         <v>14</v>
@@ -7995,13 +7995,13 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
       </c>
       <c r="F291" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G291" t="n">
         <v>9</v>
@@ -8021,7 +8021,7 @@
         <v>13</v>
       </c>
       <c r="D292" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E292" t="n">
         <v>14</v>
@@ -8079,7 +8079,7 @@
         <v>10</v>
       </c>
       <c r="F294" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G294" t="n">
         <v>10</v>
@@ -8099,7 +8099,7 @@
         <v>14</v>
       </c>
       <c r="D295" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E295" t="n">
         <v>14</v>
@@ -8125,7 +8125,7 @@
         <v>15</v>
       </c>
       <c r="D296" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E296" t="n">
         <v>14</v>
@@ -8151,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E297" t="n">
         <v>12</v>
@@ -8229,13 +8229,13 @@
         <v>10</v>
       </c>
       <c r="D300" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G300" t="n">
         <v>10</v>
@@ -8255,13 +8255,13 @@
         <v>13</v>
       </c>
       <c r="D301" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
       </c>
       <c r="F301" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G301" t="n">
         <v>13</v>
@@ -8391,7 +8391,7 @@
         <v>13</v>
       </c>
       <c r="F306" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G306" t="n">
         <v>12</v>
@@ -8411,13 +8411,13 @@
         <v>12</v>
       </c>
       <c r="D307" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E307" t="n">
         <v>11</v>
       </c>
       <c r="F307" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G307" t="n">
         <v>12</v>
@@ -8437,7 +8437,7 @@
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E308" t="n">
         <v>14</v>
@@ -8489,13 +8489,13 @@
         <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
       </c>
       <c r="F310" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G310" t="n">
         <v>14</v>
@@ -8515,13 +8515,13 @@
         <v>12</v>
       </c>
       <c r="D311" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
       </c>
       <c r="F311" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G311" t="n">
         <v>10</v>
@@ -8547,7 +8547,7 @@
         <v>13</v>
       </c>
       <c r="F312" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G312" t="n">
         <v>13</v>
@@ -8599,7 +8599,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F314" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G314" t="n">
         <v>8</v>
@@ -8651,7 +8651,7 @@
         <v>13</v>
       </c>
       <c r="F316" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G316" t="n">
         <v>13</v>
@@ -8755,7 +8755,7 @@
         <v>17</v>
       </c>
       <c r="F320" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G320" t="n">
         <v>15</v>
@@ -8775,13 +8775,13 @@
         <v>12</v>
       </c>
       <c r="D321" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
       </c>
       <c r="F321" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G321" t="n">
         <v>12</v>
@@ -8827,7 +8827,7 @@
         <v>14</v>
       </c>
       <c r="D323" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E323" t="n">
         <v>14</v>
@@ -8853,13 +8853,13 @@
         <v>12</v>
       </c>
       <c r="D324" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E324" t="n">
         <v>11</v>
       </c>
       <c r="F324" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G324" t="n">
         <v>11</v>
@@ -8905,7 +8905,7 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -8937,7 +8937,7 @@
         <v>13</v>
       </c>
       <c r="F327" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G327" t="n">
         <v>12</v>
@@ -8957,13 +8957,13 @@
         <v>8</v>
       </c>
       <c r="D328" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
       </c>
       <c r="F328" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G328" t="n">
         <v>10</v>
@@ -9009,7 +9009,7 @@
         <v>8</v>
       </c>
       <c r="D330" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E330" t="n">
         <v>11</v>
@@ -9061,7 +9061,7 @@
         <v>13</v>
       </c>
       <c r="D332" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E332" t="n">
         <v>14</v>
@@ -9087,13 +9087,13 @@
         <v>3</v>
       </c>
       <c r="D333" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
       </c>
       <c r="F333" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E334" t="n">
         <v>2</v>
@@ -9145,7 +9145,7 @@
         <v>10</v>
       </c>
       <c r="F335" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G335" t="n">
         <v>10</v>
@@ -9197,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="F337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G337" t="n">
         <v>7.000000000000001</v>
@@ -9217,13 +9217,13 @@
         <v>13</v>
       </c>
       <c r="D338" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
       </c>
       <c r="F338" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G338" t="n">
         <v>11</v>
@@ -9275,7 +9275,7 @@
         <v>14</v>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G340" t="n">
         <v>13</v>
@@ -9327,7 +9327,7 @@
         <v>8</v>
       </c>
       <c r="F342" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G342" t="n">
         <v>8</v>
@@ -9353,7 +9353,7 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -9399,7 +9399,7 @@
         <v>14</v>
       </c>
       <c r="D345" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -9425,13 +9425,13 @@
         <v>14</v>
       </c>
       <c r="D346" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
       </c>
       <c r="F346" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G346" t="n">
         <v>16</v>
@@ -9509,7 +9509,7 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G349" t="n">
         <v>8</v>
@@ -9561,7 +9561,7 @@
         <v>13</v>
       </c>
       <c r="F351" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G351" t="n">
         <v>13</v>
@@ -9581,13 +9581,13 @@
         <v>8</v>
       </c>
       <c r="D352" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
       </c>
       <c r="F352" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G352" t="n">
         <v>10</v>
@@ -9633,7 +9633,7 @@
         <v>15</v>
       </c>
       <c r="D354" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E354" t="n">
         <v>14</v>
@@ -9659,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="D355" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E355" t="n">
         <v>7.000000000000001</v>
@@ -9685,13 +9685,13 @@
         <v>11</v>
       </c>
       <c r="D356" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
       </c>
       <c r="F356" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G356" t="n">
         <v>11</v>
@@ -9763,7 +9763,7 @@
         <v>12</v>
       </c>
       <c r="D359" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -9789,13 +9789,13 @@
         <v>12</v>
       </c>
       <c r="D360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E360" t="n">
         <v>12</v>
       </c>
       <c r="F360" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G360" t="n">
         <v>11</v>
@@ -9815,7 +9815,7 @@
         <v>14</v>
       </c>
       <c r="D361" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E361" t="n">
         <v>14</v>
@@ -9847,7 +9847,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F362" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G362" t="n">
         <v>7.000000000000001</v>
@@ -9893,13 +9893,13 @@
         <v>12</v>
       </c>
       <c r="D364" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E364" t="n">
         <v>11</v>
       </c>
       <c r="F364" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G364" t="n">
         <v>11</v>
@@ -9945,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="D366" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E366" t="n">
         <v>6</v>
@@ -9977,7 +9977,7 @@
         <v>13</v>
       </c>
       <c r="F367" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G367" t="n">
         <v>12</v>
@@ -10003,7 +10003,7 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G368" t="n">
         <v>9</v>
@@ -10049,13 +10049,13 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
       </c>
       <c r="F370" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G370" t="n">
         <v>11</v>
@@ -10133,7 +10133,7 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G373" t="n">
         <v>10</v>
@@ -10153,13 +10153,13 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
       </c>
       <c r="F374" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G374" t="n">
         <v>11</v>
@@ -10179,13 +10179,13 @@
         <v>13</v>
       </c>
       <c r="D375" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
       </c>
       <c r="F375" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G375" t="n">
         <v>12</v>
@@ -10205,13 +10205,13 @@
         <v>12</v>
       </c>
       <c r="D376" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E376" t="n">
         <v>11</v>
       </c>
       <c r="F376" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G376" t="n">
         <v>11</v>
@@ -10257,13 +10257,13 @@
         <v>13</v>
       </c>
       <c r="D378" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
       </c>
       <c r="F378" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G378" t="n">
         <v>11</v>
@@ -10289,7 +10289,7 @@
         <v>8</v>
       </c>
       <c r="F379" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G379" t="n">
         <v>8</v>
@@ -10309,13 +10309,13 @@
         <v>12</v>
       </c>
       <c r="D380" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E380" t="n">
         <v>11</v>
       </c>
       <c r="F380" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G380" t="n">
         <v>10</v>
@@ -10335,7 +10335,7 @@
         <v>12</v>
       </c>
       <c r="D381" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E381" t="n">
         <v>14</v>
@@ -10419,7 +10419,7 @@
         <v>8</v>
       </c>
       <c r="F384" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G384" t="n">
         <v>9</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E386" t="n">
         <v>11</v>
       </c>
       <c r="F386" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10497,7 +10497,7 @@
         <v>8</v>
       </c>
       <c r="F387" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G387" t="n">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G388" t="n">
         <v>10</v>
@@ -10601,7 +10601,7 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G391" t="n">
         <v>10</v>
@@ -10647,7 +10647,7 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E393" t="n">
         <v>6</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="D396" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
       </c>
       <c r="F396" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G396" t="n">
         <v>10</v>
@@ -10751,7 +10751,7 @@
         <v>9</v>
       </c>
       <c r="D397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -10803,13 +10803,13 @@
         <v>11</v>
       </c>
       <c r="D399" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E399" t="n">
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10861,7 +10861,7 @@
         <v>11</v>
       </c>
       <c r="F401" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G401" t="n">
         <v>11</v>
@@ -10887,7 +10887,7 @@
         <v>8</v>
       </c>
       <c r="F402" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G402" t="n">
         <v>9</v>
@@ -10939,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="F404" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G404" t="n">
         <v>11</v>
@@ -10991,7 +10991,7 @@
         <v>10</v>
       </c>
       <c r="F406" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G406" t="n">
         <v>11</v>
@@ -11017,7 +11017,7 @@
         <v>11</v>
       </c>
       <c r="F407" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G407" t="n">
         <v>12</v>
@@ -11063,13 +11063,13 @@
         <v>11</v>
       </c>
       <c r="D409" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E409" t="n">
         <v>11</v>
       </c>
       <c r="F409" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G409" t="n">
         <v>10</v>
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="D410" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E410" t="n">
         <v>14</v>
@@ -11115,13 +11115,13 @@
         <v>9</v>
       </c>
       <c r="D411" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E411" t="n">
         <v>11</v>
       </c>
       <c r="F411" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G411" t="n">
         <v>10</v>
@@ -11219,13 +11219,13 @@
         <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E415" t="n">
         <v>11</v>
       </c>
       <c r="F415" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G415" t="n">
         <v>9</v>
@@ -11245,13 +11245,13 @@
         <v>15</v>
       </c>
       <c r="D416" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E416" t="n">
         <v>16</v>
       </c>
       <c r="F416" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G416" t="n">
         <v>15</v>
@@ -11303,7 +11303,7 @@
         <v>11</v>
       </c>
       <c r="F418" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G418" t="n">
         <v>11</v>
@@ -11381,7 +11381,7 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G421" t="n">
         <v>10</v>
@@ -11407,7 +11407,7 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G422" t="n">
         <v>10</v>
@@ -11433,7 +11433,7 @@
         <v>9</v>
       </c>
       <c r="F423" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G423" t="n">
         <v>10</v>
@@ -11479,7 +11479,7 @@
         <v>12</v>
       </c>
       <c r="D425" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E425" t="n">
         <v>14</v>
@@ -11563,7 +11563,7 @@
         <v>13</v>
       </c>
       <c r="F428" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G428" t="n">
         <v>12</v>
@@ -11589,7 +11589,7 @@
         <v>12</v>
       </c>
       <c r="F429" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G429" t="n">
         <v>12</v>
@@ -11641,7 +11641,7 @@
         <v>13</v>
       </c>
       <c r="F431" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G431" t="n">
         <v>13</v>
@@ -11667,7 +11667,7 @@
         <v>8</v>
       </c>
       <c r="F432" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G432" t="n">
         <v>9</v>
@@ -11719,7 +11719,7 @@
         <v>12</v>
       </c>
       <c r="F434" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G434" t="n">
         <v>12</v>
@@ -11739,13 +11739,13 @@
         <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E435" t="n">
         <v>12</v>
       </c>
       <c r="F435" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G435" t="n">
         <v>11</v>
@@ -11823,7 +11823,7 @@
         <v>11</v>
       </c>
       <c r="F438" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G438" t="n">
         <v>12</v>
@@ -11869,7 +11869,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D440" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E440" t="n">
         <v>6</v>
@@ -11895,13 +11895,13 @@
         <v>11</v>
       </c>
       <c r="D441" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E441" t="n">
         <v>11</v>
       </c>
       <c r="F441" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G441" t="n">
         <v>11</v>
@@ -11927,7 +11927,7 @@
         <v>9</v>
       </c>
       <c r="F442" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G442" t="n">
         <v>9</v>
@@ -12051,13 +12051,13 @@
         <v>11</v>
       </c>
       <c r="D447" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E447" t="n">
         <v>9</v>
       </c>
       <c r="F447" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G447" t="n">
         <v>10</v>
@@ -12083,7 +12083,7 @@
         <v>13</v>
       </c>
       <c r="F448" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G448" t="n">
         <v>13</v>
@@ -12161,7 +12161,7 @@
         <v>12</v>
       </c>
       <c r="F451" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G451" t="n">
         <v>12</v>
@@ -12181,13 +12181,13 @@
         <v>12</v>
       </c>
       <c r="D452" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E452" t="n">
         <v>11</v>
       </c>
       <c r="F452" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G452" t="n">
         <v>11</v>
@@ -12207,13 +12207,13 @@
         <v>12</v>
       </c>
       <c r="D453" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E453" t="n">
         <v>11</v>
       </c>
       <c r="F453" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G453" t="n">
         <v>12</v>
@@ -12239,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="F454" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G454" t="n">
         <v>13</v>
@@ -12311,13 +12311,13 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E457" t="n">
         <v>11</v>
       </c>
       <c r="F457" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G457" t="n">
         <v>11</v>
@@ -12337,7 +12337,7 @@
         <v>14</v>
       </c>
       <c r="D458" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E458" t="n">
         <v>14</v>
@@ -12389,7 +12389,7 @@
         <v>8</v>
       </c>
       <c r="D460" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -12499,7 +12499,7 @@
         <v>11</v>
       </c>
       <c r="F464" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G464" t="n">
         <v>11</v>
@@ -12519,13 +12519,13 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E465" t="n">
         <v>12</v>
       </c>
       <c r="F465" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G465" t="n">
         <v>11</v>
@@ -12551,7 +12551,7 @@
         <v>8</v>
       </c>
       <c r="F466" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G466" t="n">
         <v>9</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -12675,7 +12675,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E471" t="n">
         <v>7.000000000000001</v>
@@ -12727,7 +12727,7 @@
         <v>13</v>
       </c>
       <c r="D473" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -12759,7 +12759,7 @@
         <v>12</v>
       </c>
       <c r="F474" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G474" t="n">
         <v>11</v>
@@ -12805,13 +12805,13 @@
         <v>10</v>
       </c>
       <c r="D476" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E476" t="n">
         <v>11</v>
       </c>
       <c r="F476" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G476" t="n">
         <v>11</v>
@@ -12831,7 +12831,7 @@
         <v>15</v>
       </c>
       <c r="D477" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E477" t="n">
         <v>14</v>
@@ -12863,7 +12863,7 @@
         <v>10</v>
       </c>
       <c r="F478" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G478" t="n">
         <v>9</v>
@@ -12935,13 +12935,13 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
       </c>
       <c r="F481" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G481" t="n">
         <v>10</v>
@@ -12961,13 +12961,13 @@
         <v>8</v>
       </c>
       <c r="D482" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E482" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F482" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G482" t="n">
         <v>8</v>
@@ -12993,7 +12993,7 @@
         <v>13</v>
       </c>
       <c r="F483" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G483" t="n">
         <v>12</v>
@@ -13019,7 +13019,7 @@
         <v>13</v>
       </c>
       <c r="F484" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G484" t="n">
         <v>13</v>
@@ -13039,7 +13039,7 @@
         <v>12</v>
       </c>
       <c r="D485" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E485" t="n">
         <v>14</v>
@@ -13065,13 +13065,13 @@
         <v>15</v>
       </c>
       <c r="D486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E486" t="n">
         <v>16</v>
       </c>
       <c r="F486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G486" t="n">
         <v>14</v>
@@ -13097,7 +13097,7 @@
         <v>8</v>
       </c>
       <c r="F487" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G487" t="n">
         <v>7.000000000000001</v>
@@ -13149,7 +13149,7 @@
         <v>15</v>
       </c>
       <c r="F489" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G489" t="n">
         <v>13</v>
@@ -13221,13 +13221,13 @@
         <v>5</v>
       </c>
       <c r="D492" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E492" t="n">
         <v>11</v>
       </c>
       <c r="F492" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G492" t="n">
         <v>9</v>
@@ -13247,7 +13247,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D493" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -13325,13 +13325,13 @@
         <v>13</v>
       </c>
       <c r="D496" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E496" t="n">
         <v>14</v>
       </c>
       <c r="F496" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G496" t="n">
         <v>15</v>
@@ -13429,7 +13429,7 @@
         <v>13</v>
       </c>
       <c r="D500" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E500" t="n">
         <v>14</v>
@@ -13461,7 +13461,7 @@
         <v>13</v>
       </c>
       <c r="F501" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G501" t="n">
         <v>12</v>
@@ -13487,7 +13487,7 @@
         <v>11</v>
       </c>
       <c r="F502" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G502" t="n">
         <v>11</v>
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="D503" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E503" t="n">
         <v>9</v>
@@ -13611,13 +13611,13 @@
         <v>12</v>
       </c>
       <c r="D507" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E507" t="n">
         <v>9</v>
       </c>
       <c r="F507" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G507" t="n">
         <v>10</v>
@@ -13637,13 +13637,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D508" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E508" t="n">
         <v>6</v>
       </c>
       <c r="F508" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -13663,7 +13663,7 @@
         <v>5</v>
       </c>
       <c r="D509" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13695,7 +13695,7 @@
         <v>12</v>
       </c>
       <c r="F510" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G510" t="n">
         <v>11</v>
@@ -13773,7 +13773,7 @@
         <v>10</v>
       </c>
       <c r="F513" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G513" t="n">
         <v>8</v>
@@ -13793,7 +13793,7 @@
         <v>8</v>
       </c>
       <c r="D514" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -13819,7 +13819,7 @@
         <v>16</v>
       </c>
       <c r="D515" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E515" t="n">
         <v>16</v>
@@ -13877,7 +13877,7 @@
         <v>4</v>
       </c>
       <c r="F517" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G517" t="n">
         <v>6</v>
@@ -13897,7 +13897,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -13929,7 +13929,7 @@
         <v>10</v>
       </c>
       <c r="F519" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G519" t="n">
         <v>10</v>
@@ -13981,7 +13981,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F521" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G521" t="n">
         <v>7.000000000000001</v>
@@ -14007,7 +14007,7 @@
         <v>15</v>
       </c>
       <c r="F522" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G522" t="n">
         <v>14</v>
@@ -14027,7 +14027,7 @@
         <v>10</v>
       </c>
       <c r="D523" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E523" t="n">
         <v>12</v>
@@ -14079,13 +14079,13 @@
         <v>15</v>
       </c>
       <c r="D525" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
       </c>
       <c r="F525" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G525" t="n">
         <v>12</v>
@@ -14105,13 +14105,13 @@
         <v>15</v>
       </c>
       <c r="D526" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E526" t="n">
         <v>17</v>
       </c>
       <c r="F526" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G526" t="n">
         <v>15</v>
@@ -14131,7 +14131,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D527" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E527" t="n">
         <v>7.000000000000001</v>
@@ -14157,13 +14157,13 @@
         <v>15</v>
       </c>
       <c r="D528" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
       </c>
       <c r="F528" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G528" t="n">
         <v>12</v>
@@ -14209,7 +14209,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D530" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -14235,7 +14235,7 @@
         <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -14261,13 +14261,13 @@
         <v>11</v>
       </c>
       <c r="D532" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E532" t="n">
         <v>12</v>
       </c>
       <c r="F532" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G532" t="n">
         <v>12</v>
@@ -14319,7 +14319,7 @@
         <v>13</v>
       </c>
       <c r="F534" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G534" t="n">
         <v>12</v>
@@ -14345,7 +14345,7 @@
         <v>8</v>
       </c>
       <c r="F535" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G535" t="n">
         <v>10</v>
@@ -14397,7 +14397,7 @@
         <v>13</v>
       </c>
       <c r="F537" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G537" t="n">
         <v>12</v>
@@ -14443,13 +14443,13 @@
         <v>15</v>
       </c>
       <c r="D539" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E539" t="n">
         <v>16</v>
       </c>
       <c r="F539" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G539" t="n">
         <v>16</v>
@@ -14475,7 +14475,7 @@
         <v>12</v>
       </c>
       <c r="F540" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G540" t="n">
         <v>11</v>
@@ -14495,7 +14495,7 @@
         <v>12</v>
       </c>
       <c r="D541" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E541" t="n">
         <v>14</v>
@@ -14521,7 +14521,7 @@
         <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E542" t="n">
         <v>14</v>
@@ -14553,7 +14553,7 @@
         <v>8</v>
       </c>
       <c r="F543" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G543" t="n">
         <v>9</v>
@@ -14579,7 +14579,7 @@
         <v>16</v>
       </c>
       <c r="F544" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G544" t="n">
         <v>15</v>
@@ -14605,7 +14605,7 @@
         <v>8</v>
       </c>
       <c r="F545" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G545" t="n">
         <v>8</v>
@@ -14625,13 +14625,13 @@
         <v>9</v>
       </c>
       <c r="D546" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E546" t="n">
         <v>11</v>
       </c>
       <c r="F546" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G546" t="n">
         <v>10</v>
@@ -14657,7 +14657,7 @@
         <v>16</v>
       </c>
       <c r="F547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G547" t="n">
         <v>15</v>
@@ -14683,7 +14683,7 @@
         <v>16</v>
       </c>
       <c r="F548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G548" t="n">
         <v>15</v>
@@ -14729,13 +14729,13 @@
         <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E550" t="n">
         <v>10</v>
       </c>
       <c r="F550" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G550" t="n">
         <v>12</v>
@@ -14813,7 +14813,7 @@
         <v>13</v>
       </c>
       <c r="F553" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G553" t="n">
         <v>13</v>
@@ -14833,13 +14833,13 @@
         <v>10</v>
       </c>
       <c r="D554" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E554" t="n">
         <v>11</v>
       </c>
       <c r="F554" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G554" t="n">
         <v>10</v>
@@ -14865,7 +14865,7 @@
         <v>16</v>
       </c>
       <c r="F555" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G555" t="n">
         <v>15</v>
@@ -14885,13 +14885,13 @@
         <v>16</v>
       </c>
       <c r="D556" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E556" t="n">
         <v>16</v>
       </c>
       <c r="F556" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G556" t="n">
         <v>15</v>
@@ -14963,7 +14963,7 @@
         <v>14</v>
       </c>
       <c r="D559" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E559" t="n">
         <v>14</v>
@@ -14995,7 +14995,7 @@
         <v>11</v>
       </c>
       <c r="F560" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G560" t="n">
         <v>10</v>
@@ -15015,7 +15015,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D561" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E561" t="n">
         <v>6</v>
@@ -15041,7 +15041,7 @@
         <v>4</v>
       </c>
       <c r="D562" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E562" t="n">
         <v>6</v>
@@ -15099,7 +15099,7 @@
         <v>16</v>
       </c>
       <c r="F564" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G564" t="n">
         <v>15</v>
@@ -15119,13 +15119,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D565" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E565" t="n">
         <v>9</v>
       </c>
       <c r="F565" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G565" t="n">
         <v>7.000000000000001</v>
@@ -15145,13 +15145,13 @@
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
       </c>
       <c r="F566" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G566" t="n">
         <v>11</v>
@@ -15171,7 +15171,7 @@
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E567" t="n">
         <v>14</v>
@@ -15203,7 +15203,7 @@
         <v>11</v>
       </c>
       <c r="F568" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G568" t="n">
         <v>10</v>
@@ -15229,7 +15229,7 @@
         <v>8</v>
       </c>
       <c r="F569" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G569" t="n">
         <v>9</v>
@@ -15275,13 +15275,13 @@
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
       </c>
       <c r="F571" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G571" t="n">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>5</v>
       </c>
       <c r="D573" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E573" t="n">
         <v>3</v>
@@ -15359,7 +15359,7 @@
         <v>12</v>
       </c>
       <c r="F574" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G574" t="n">
         <v>11</v>
@@ -15385,7 +15385,7 @@
         <v>13</v>
       </c>
       <c r="F575" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G575" t="n">
         <v>12</v>
@@ -15405,7 +15405,7 @@
         <v>9</v>
       </c>
       <c r="D576" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E576" t="n">
         <v>11</v>
@@ -15509,7 +15509,7 @@
         <v>6</v>
       </c>
       <c r="D580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E580" t="n">
         <v>1</v>
@@ -15541,7 +15541,7 @@
         <v>13</v>
       </c>
       <c r="F581" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G581" t="n">
         <v>13</v>
@@ -15561,7 +15561,7 @@
         <v>15</v>
       </c>
       <c r="D582" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E582" t="n">
         <v>15</v>
@@ -15593,7 +15593,7 @@
         <v>14</v>
       </c>
       <c r="F583" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G583" t="n">
         <v>13</v>
@@ -15613,13 +15613,13 @@
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E584" t="n">
         <v>11</v>
       </c>
       <c r="F584" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G584" t="n">
         <v>10</v>
@@ -15769,13 +15769,13 @@
         <v>8</v>
       </c>
       <c r="D590" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
       </c>
       <c r="F590" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G590" t="n">
         <v>8</v>
@@ -15821,7 +15821,7 @@
         <v>13</v>
       </c>
       <c r="D592" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -15879,7 +15879,7 @@
         <v>9</v>
       </c>
       <c r="F594" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G594" t="n">
         <v>11</v>
@@ -15899,7 +15899,7 @@
         <v>9</v>
       </c>
       <c r="D595" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -15925,7 +15925,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D596" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -15951,13 +15951,13 @@
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E597" t="n">
         <v>11</v>
       </c>
       <c r="F597" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G597" t="n">
         <v>11</v>
@@ -16029,13 +16029,13 @@
         <v>13</v>
       </c>
       <c r="D600" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E600" t="n">
         <v>16</v>
       </c>
       <c r="F600" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G600" t="n">
         <v>15</v>
@@ -16113,7 +16113,7 @@
         <v>12</v>
       </c>
       <c r="F603" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G603" t="n">
         <v>12</v>
@@ -16133,13 +16133,13 @@
         <v>15</v>
       </c>
       <c r="D604" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E604" t="n">
         <v>16</v>
       </c>
       <c r="F604" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G604" t="n">
         <v>16</v>
@@ -16159,7 +16159,7 @@
         <v>14</v>
       </c>
       <c r="D605" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E605" t="n">
         <v>15</v>
@@ -16191,7 +16191,7 @@
         <v>10</v>
       </c>
       <c r="F606" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G606" t="n">
         <v>10</v>
@@ -16211,13 +16211,13 @@
         <v>8</v>
       </c>
       <c r="D607" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
       </c>
       <c r="F607" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G607" t="n">
         <v>8</v>
@@ -16243,7 +16243,7 @@
         <v>8</v>
       </c>
       <c r="F608" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G608" t="n">
         <v>10</v>
@@ -16269,7 +16269,7 @@
         <v>15</v>
       </c>
       <c r="F609" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G609" t="n">
         <v>17</v>
@@ -16341,7 +16341,7 @@
         <v>10</v>
       </c>
       <c r="D612" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -16373,7 +16373,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G613" t="n">
         <v>8</v>
@@ -16399,7 +16399,7 @@
         <v>5</v>
       </c>
       <c r="F614" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G614" t="n">
         <v>7.000000000000001</v>
@@ -16425,7 +16425,7 @@
         <v>8</v>
       </c>
       <c r="F615" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G615" t="n">
         <v>10</v>
@@ -16451,7 +16451,7 @@
         <v>10</v>
       </c>
       <c r="F616" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G616" t="n">
         <v>9</v>
@@ -16503,7 +16503,7 @@
         <v>12</v>
       </c>
       <c r="F618" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G618" t="n">
         <v>12</v>
@@ -16555,7 +16555,7 @@
         <v>13</v>
       </c>
       <c r="F620" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G620" t="n">
         <v>13</v>
@@ -16575,13 +16575,13 @@
         <v>12</v>
       </c>
       <c r="D621" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E621" t="n">
         <v>12</v>
       </c>
       <c r="F621" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G621" t="n">
         <v>13</v>
@@ -16607,7 +16607,7 @@
         <v>13</v>
       </c>
       <c r="F622" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G622" t="n">
         <v>13</v>
@@ -16627,7 +16627,7 @@
         <v>14</v>
       </c>
       <c r="D623" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E623" t="n">
         <v>15</v>
@@ -16653,13 +16653,13 @@
         <v>13</v>
       </c>
       <c r="D624" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E624" t="n">
         <v>11</v>
       </c>
       <c r="F624" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G624" t="n">
         <v>11</v>
@@ -16763,7 +16763,7 @@
         <v>11</v>
       </c>
       <c r="F628" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G628" t="n">
         <v>11</v>
@@ -16867,7 +16867,7 @@
         <v>9</v>
       </c>
       <c r="F632" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G632" t="n">
         <v>10</v>
@@ -16893,7 +16893,7 @@
         <v>13</v>
       </c>
       <c r="F633" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G633" t="n">
         <v>13</v>
@@ -16939,7 +16939,7 @@
         <v>10</v>
       </c>
       <c r="D635" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -17069,13 +17069,13 @@
         <v>16</v>
       </c>
       <c r="D640" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E640" t="n">
         <v>17</v>
       </c>
       <c r="F640" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G640" t="n">
         <v>15</v>
@@ -17095,7 +17095,7 @@
         <v>9</v>
       </c>
       <c r="D641" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E641" t="n">
         <v>7.000000000000001</v>
@@ -17121,7 +17121,7 @@
         <v>6</v>
       </c>
       <c r="D642" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E642" t="n">
         <v>7.000000000000001</v>
@@ -17153,7 +17153,7 @@
         <v>13</v>
       </c>
       <c r="F643" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G643" t="n">
         <v>13</v>
@@ -17205,7 +17205,7 @@
         <v>16</v>
       </c>
       <c r="F645" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G645" t="n">
         <v>16</v>
@@ -17231,7 +17231,7 @@
         <v>8</v>
       </c>
       <c r="F646" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G646" t="n">
         <v>12</v>
@@ -17257,7 +17257,7 @@
         <v>8</v>
       </c>
       <c r="F647" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G647" t="n">
         <v>8</v>
@@ -17361,7 +17361,7 @@
         <v>13</v>
       </c>
       <c r="F651" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G651" t="n">
         <v>13</v>
@@ -17439,7 +17439,7 @@
         <v>14</v>
       </c>
       <c r="F654" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G654" t="n">
         <v>12</v>
@@ -17465,7 +17465,7 @@
         <v>16</v>
       </c>
       <c r="F655" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G655" t="n">
         <v>15</v>
@@ -17491,7 +17491,7 @@
         <v>13</v>
       </c>
       <c r="F656" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G656" t="n">
         <v>11</v>
@@ -17517,7 +17517,7 @@
         <v>14</v>
       </c>
       <c r="F657" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G657" t="n">
         <v>13</v>
@@ -17569,7 +17569,7 @@
         <v>9</v>
       </c>
       <c r="F659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G659" t="n">
         <v>10</v>
@@ -17615,13 +17615,13 @@
         <v>14</v>
       </c>
       <c r="D661" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
       </c>
       <c r="F661" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G661" t="n">
         <v>13</v>
@@ -17641,7 +17641,7 @@
         <v>10</v>
       </c>
       <c r="D662" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E662" t="n">
         <v>14</v>
@@ -17667,13 +17667,13 @@
         <v>9</v>
       </c>
       <c r="D663" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E663" t="n">
         <v>11</v>
       </c>
       <c r="F663" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G663" t="n">
         <v>10</v>
@@ -17693,7 +17693,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D664" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E664" t="n">
         <v>12</v>
@@ -17719,7 +17719,7 @@
         <v>10</v>
       </c>
       <c r="D665" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E665" t="n">
         <v>7.000000000000001</v>
@@ -17771,13 +17771,13 @@
         <v>10</v>
       </c>
       <c r="D667" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E667" t="n">
         <v>11</v>
       </c>
       <c r="F667" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G667" t="n">
         <v>11</v>
@@ -17829,7 +17829,7 @@
         <v>9</v>
       </c>
       <c r="F669" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G669" t="n">
         <v>10</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="D670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E670" t="n">
         <v>1</v>
@@ -17881,7 +17881,7 @@
         <v>11</v>
       </c>
       <c r="F671" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G671" t="n">
         <v>12</v>
@@ -17907,7 +17907,7 @@
         <v>14</v>
       </c>
       <c r="F672" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G672" t="n">
         <v>13</v>
@@ -18011,7 +18011,7 @@
         <v>13</v>
       </c>
       <c r="F676" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G676" t="n">
         <v>11</v>
@@ -18089,7 +18089,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F679" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G679" t="n">
         <v>8</v>
@@ -18141,7 +18141,7 @@
         <v>11</v>
       </c>
       <c r="F681" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G681" t="n">
         <v>10</v>
@@ -18167,7 +18167,7 @@
         <v>13</v>
       </c>
       <c r="F682" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G682" t="n">
         <v>13</v>
@@ -18219,7 +18219,7 @@
         <v>12</v>
       </c>
       <c r="F684" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G684" t="n">
         <v>12</v>
@@ -18297,7 +18297,7 @@
         <v>14</v>
       </c>
       <c r="F687" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G687" t="n">
         <v>14</v>
@@ -18317,13 +18317,13 @@
         <v>14</v>
       </c>
       <c r="D688" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
       </c>
       <c r="F688" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G688" t="n">
         <v>13</v>
@@ -18349,7 +18349,7 @@
         <v>9</v>
       </c>
       <c r="F689" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G689" t="n">
         <v>9</v>
@@ -18395,13 +18395,13 @@
         <v>13</v>
       </c>
       <c r="D691" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E691" t="n">
         <v>11</v>
       </c>
       <c r="F691" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G691" t="n">
         <v>11</v>
@@ -18421,13 +18421,13 @@
         <v>16</v>
       </c>
       <c r="D692" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E692" t="n">
         <v>17</v>
       </c>
       <c r="F692" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G692" t="n">
         <v>15</v>
@@ -18479,7 +18479,7 @@
         <v>14</v>
       </c>
       <c r="F694" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G694" t="n">
         <v>13</v>
@@ -18499,13 +18499,13 @@
         <v>12</v>
       </c>
       <c r="D695" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E695" t="n">
         <v>12</v>
       </c>
       <c r="F695" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G695" t="n">
         <v>12</v>
@@ -18609,7 +18609,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F699" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G699" t="n">
         <v>10</v>
@@ -18629,7 +18629,7 @@
         <v>14</v>
       </c>
       <c r="D700" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E700" t="n">
         <v>14</v>
@@ -18655,7 +18655,7 @@
         <v>15</v>
       </c>
       <c r="D701" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E701" t="n">
         <v>14</v>
@@ -18681,13 +18681,13 @@
         <v>9</v>
       </c>
       <c r="D702" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E702" t="n">
         <v>10</v>
       </c>
       <c r="F702" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G702" t="n">
         <v>8</v>
@@ -18707,7 +18707,7 @@
         <v>4</v>
       </c>
       <c r="D703" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -18739,7 +18739,7 @@
         <v>14</v>
       </c>
       <c r="F704" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G704" t="n">
         <v>13</v>
@@ -18765,7 +18765,7 @@
         <v>13</v>
       </c>
       <c r="F705" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G705" t="n">
         <v>12</v>
@@ -18791,7 +18791,7 @@
         <v>12</v>
       </c>
       <c r="F706" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G706" t="n">
         <v>12</v>
@@ -18811,13 +18811,13 @@
         <v>14</v>
       </c>
       <c r="D707" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
       </c>
       <c r="F707" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G707" t="n">
         <v>13</v>
@@ -18843,7 +18843,7 @@
         <v>8</v>
       </c>
       <c r="F708" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G708" t="n">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>13</v>
       </c>
       <c r="F709" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G709" t="n">
         <v>13</v>
@@ -18941,7 +18941,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D712" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E712" t="n">
         <v>12</v>
@@ -18973,7 +18973,7 @@
         <v>13</v>
       </c>
       <c r="F713" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G713" t="n">
         <v>12</v>
@@ -18999,7 +18999,7 @@
         <v>13</v>
       </c>
       <c r="F714" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G714" t="n">
         <v>12</v>
@@ -19019,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="D715" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E715" t="n">
         <v>10</v>
@@ -19071,13 +19071,13 @@
         <v>9</v>
       </c>
       <c r="D717" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E717" t="n">
         <v>14</v>
       </c>
       <c r="F717" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G717" t="n">
         <v>12</v>
@@ -19103,7 +19103,7 @@
         <v>10</v>
       </c>
       <c r="F718" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G718" t="n">
         <v>10</v>
@@ -19129,7 +19129,7 @@
         <v>9</v>
       </c>
       <c r="F719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>14</v>
       </c>
       <c r="F722" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G722" t="n">
         <v>12</v>
@@ -19253,13 +19253,13 @@
         <v>11</v>
       </c>
       <c r="D724" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E724" t="n">
         <v>11</v>
       </c>
       <c r="F724" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G724" t="n">
         <v>11</v>
@@ -19311,7 +19311,7 @@
         <v>14</v>
       </c>
       <c r="F726" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G726" t="n">
         <v>12</v>
@@ -19331,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="D727" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E727" t="n">
         <v>14</v>
@@ -19383,13 +19383,13 @@
         <v>16</v>
       </c>
       <c r="D729" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E729" t="n">
         <v>17</v>
       </c>
       <c r="F729" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G729" t="n">
         <v>16</v>
@@ -19435,13 +19435,13 @@
         <v>9</v>
       </c>
       <c r="D731" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
       </c>
       <c r="F731" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G731" t="n">
         <v>8</v>
@@ -19493,7 +19493,7 @@
         <v>8</v>
       </c>
       <c r="F733" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G733" t="n">
         <v>8</v>
@@ -19519,7 +19519,7 @@
         <v>14</v>
       </c>
       <c r="F734" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G734" t="n">
         <v>14</v>
@@ -19591,7 +19591,7 @@
         <v>5</v>
       </c>
       <c r="D737" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E737" t="n">
         <v>3</v>
@@ -19643,7 +19643,7 @@
         <v>10</v>
       </c>
       <c r="D739" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E739" t="n">
         <v>7.000000000000001</v>
@@ -19773,7 +19773,7 @@
         <v>14</v>
       </c>
       <c r="D744" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E744" t="n">
         <v>14</v>
@@ -19825,7 +19825,7 @@
         <v>3</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E746" t="n">
         <v>2</v>
@@ -19857,7 +19857,7 @@
         <v>12</v>
       </c>
       <c r="F747" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G747" t="n">
         <v>12</v>
@@ -19883,7 +19883,7 @@
         <v>12</v>
       </c>
       <c r="F748" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G748" t="n">
         <v>11</v>
@@ -19955,7 +19955,7 @@
         <v>6</v>
       </c>
       <c r="D751" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E751" t="n">
         <v>4</v>
@@ -20033,13 +20033,13 @@
         <v>16</v>
       </c>
       <c r="D754" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E754" t="n">
         <v>17</v>
       </c>
       <c r="F754" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G754" t="n">
         <v>15</v>
@@ -20065,7 +20065,7 @@
         <v>13</v>
       </c>
       <c r="F755" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G755" t="n">
         <v>12</v>
@@ -20143,7 +20143,7 @@
         <v>13</v>
       </c>
       <c r="F758" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20163,7 +20163,7 @@
         <v>5</v>
       </c>
       <c r="D759" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E759" t="n">
         <v>4</v>
@@ -20195,7 +20195,7 @@
         <v>11</v>
       </c>
       <c r="F760" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G760" t="n">
         <v>11</v>
@@ -20221,7 +20221,7 @@
         <v>13</v>
       </c>
       <c r="F761" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G761" t="n">
         <v>12</v>
@@ -20247,7 +20247,7 @@
         <v>8</v>
       </c>
       <c r="F762" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G762" t="n">
         <v>8</v>
@@ -20273,7 +20273,7 @@
         <v>10</v>
       </c>
       <c r="F763" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G763" t="n">
         <v>10</v>
@@ -20351,7 +20351,7 @@
         <v>13</v>
       </c>
       <c r="F766" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G766" t="n">
         <v>12</v>
@@ -20377,7 +20377,7 @@
         <v>13</v>
       </c>
       <c r="F767" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G767" t="n">
         <v>12</v>
@@ -20423,13 +20423,13 @@
         <v>11</v>
       </c>
       <c r="D769" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E769" t="n">
         <v>11</v>
       </c>
       <c r="F769" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G769" t="n">
         <v>11</v>
@@ -20481,7 +20481,7 @@
         <v>8</v>
       </c>
       <c r="F771" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G771" t="n">
         <v>10</v>
@@ -20527,7 +20527,7 @@
         <v>10</v>
       </c>
       <c r="D773" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -20605,13 +20605,13 @@
         <v>11</v>
       </c>
       <c r="D776" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E776" t="n">
         <v>11</v>
       </c>
       <c r="F776" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G776" t="n">
         <v>12</v>
@@ -20715,7 +20715,7 @@
         <v>9</v>
       </c>
       <c r="F780" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G780" t="n">
         <v>8</v>
@@ -20735,13 +20735,13 @@
         <v>6</v>
       </c>
       <c r="D781" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
       </c>
       <c r="F781" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G781" t="n">
         <v>8</v>
@@ -20761,7 +20761,7 @@
         <v>5</v>
       </c>
       <c r="D782" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -20787,13 +20787,13 @@
         <v>13</v>
       </c>
       <c r="D783" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E783" t="n">
         <v>12</v>
       </c>
       <c r="F783" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G783" t="n">
         <v>11</v>
@@ -20839,13 +20839,13 @@
         <v>11</v>
       </c>
       <c r="D785" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E785" t="n">
         <v>11</v>
       </c>
       <c r="F785" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G785" t="n">
         <v>10</v>
@@ -20865,7 +20865,7 @@
         <v>8</v>
       </c>
       <c r="D786" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -20897,7 +20897,7 @@
         <v>16</v>
       </c>
       <c r="F787" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G787" t="n">
         <v>15</v>
@@ -20923,7 +20923,7 @@
         <v>10</v>
       </c>
       <c r="F788" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G788" t="n">
         <v>11</v>
@@ -20943,13 +20943,13 @@
         <v>10</v>
       </c>
       <c r="D789" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E789" t="n">
         <v>12</v>
       </c>
       <c r="F789" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G789" t="n">
         <v>12</v>
@@ -20969,7 +20969,7 @@
         <v>4</v>
       </c>
       <c r="D790" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E790" t="n">
         <v>6</v>
@@ -21047,7 +21047,7 @@
         <v>12</v>
       </c>
       <c r="D793" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E793" t="n">
         <v>14</v>
@@ -21105,7 +21105,7 @@
         <v>11</v>
       </c>
       <c r="F795" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G795" t="n">
         <v>11</v>
@@ -21131,7 +21131,7 @@
         <v>14</v>
       </c>
       <c r="F796" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G796" t="n">
         <v>13</v>
@@ -21151,13 +21151,13 @@
         <v>10</v>
       </c>
       <c r="D797" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E797" t="n">
         <v>11</v>
       </c>
       <c r="F797" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G797" t="n">
         <v>11</v>
@@ -21203,13 +21203,13 @@
         <v>13</v>
       </c>
       <c r="D799" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E799" t="n">
         <v>11</v>
       </c>
       <c r="F799" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G799" t="n">
         <v>11</v>
@@ -21229,13 +21229,13 @@
         <v>14</v>
       </c>
       <c r="D800" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E800" t="n">
         <v>15</v>
       </c>
       <c r="F800" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G800" t="n">
         <v>15</v>
@@ -21313,7 +21313,7 @@
         <v>15</v>
       </c>
       <c r="F803" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G803" t="n">
         <v>17</v>
@@ -21365,7 +21365,7 @@
         <v>13</v>
       </c>
       <c r="F805" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G805" t="n">
         <v>12</v>
@@ -21469,7 +21469,7 @@
         <v>11</v>
       </c>
       <c r="F809" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G809" t="n">
         <v>11</v>
@@ -21515,13 +21515,13 @@
         <v>15</v>
       </c>
       <c r="D811" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E811" t="n">
         <v>16</v>
       </c>
       <c r="F811" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G811" t="n">
         <v>16</v>
@@ -21547,7 +21547,7 @@
         <v>14</v>
       </c>
       <c r="F812" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G812" t="n">
         <v>13</v>
@@ -21567,13 +21567,13 @@
         <v>10</v>
       </c>
       <c r="D813" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E813" t="n">
         <v>11</v>
       </c>
       <c r="F813" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G813" t="n">
         <v>12</v>
@@ -21619,13 +21619,13 @@
         <v>9</v>
       </c>
       <c r="D815" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E815" t="n">
         <v>11</v>
       </c>
       <c r="F815" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G815" t="n">
         <v>10</v>
@@ -21677,7 +21677,7 @@
         <v>13</v>
       </c>
       <c r="F817" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G817" t="n">
         <v>11</v>
@@ -21697,7 +21697,7 @@
         <v>11</v>
       </c>
       <c r="D818" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E818" t="n">
         <v>5</v>
@@ -21885,7 +21885,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F825" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G825" t="n">
         <v>7.000000000000001</v>
@@ -21963,7 +21963,7 @@
         <v>12</v>
       </c>
       <c r="F828" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G828" t="n">
         <v>12</v>
@@ -21989,7 +21989,7 @@
         <v>13</v>
       </c>
       <c r="F829" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G829" t="n">
         <v>12</v>
@@ -22015,7 +22015,7 @@
         <v>12</v>
       </c>
       <c r="F830" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G830" t="n">
         <v>14</v>
@@ -22035,13 +22035,13 @@
         <v>11</v>
       </c>
       <c r="D831" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E831" t="n">
         <v>12</v>
       </c>
       <c r="F831" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G831" t="n">
         <v>12</v>
@@ -22087,13 +22087,13 @@
         <v>10</v>
       </c>
       <c r="D833" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E833" t="n">
         <v>10</v>
       </c>
       <c r="F833" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G833" t="n">
         <v>10</v>
@@ -22113,7 +22113,7 @@
         <v>8</v>
       </c>
       <c r="D834" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E834" t="n">
         <v>6</v>
@@ -22145,7 +22145,7 @@
         <v>13</v>
       </c>
       <c r="F835" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G835" t="n">
         <v>13</v>
@@ -22165,7 +22165,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D836" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -22217,7 +22217,7 @@
         <v>15</v>
       </c>
       <c r="D838" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E838" t="n">
         <v>15</v>
@@ -22347,13 +22347,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D843" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
       </c>
       <c r="F843" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G843" t="n">
         <v>6</v>
@@ -22379,7 +22379,7 @@
         <v>13</v>
       </c>
       <c r="F844" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G844" t="n">
         <v>13</v>
@@ -22425,7 +22425,7 @@
         <v>3</v>
       </c>
       <c r="D846" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E846" t="n">
         <v>4</v>
@@ -22477,7 +22477,7 @@
         <v>15</v>
       </c>
       <c r="D848" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E848" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         <v>10</v>
       </c>
       <c r="F849" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G849" t="n">
         <v>10</v>
@@ -22535,7 +22535,7 @@
         <v>9</v>
       </c>
       <c r="F850" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G850" t="n">
         <v>10</v>
@@ -22659,7 +22659,7 @@
         <v>9</v>
       </c>
       <c r="D855" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E855" t="n">
         <v>10</v>
@@ -22691,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="F856" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G856" t="n">
         <v>13</v>
@@ -22743,7 +22743,7 @@
         <v>10</v>
       </c>
       <c r="F858" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G858" t="n">
         <v>10</v>
@@ -22841,13 +22841,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D862" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E862" t="n">
         <v>10</v>
       </c>
       <c r="F862" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G862" t="n">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>13</v>
       </c>
       <c r="F864" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G864" t="n">
         <v>13</v>
@@ -22977,7 +22977,7 @@
         <v>13</v>
       </c>
       <c r="F867" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G867" t="n">
         <v>12</v>
@@ -22997,13 +22997,13 @@
         <v>15</v>
       </c>
       <c r="D868" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E868" t="n">
         <v>16</v>
       </c>
       <c r="F868" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G868" t="n">
         <v>16</v>
@@ -23055,7 +23055,7 @@
         <v>13</v>
       </c>
       <c r="F870" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G870" t="n">
         <v>13</v>
@@ -23081,7 +23081,7 @@
         <v>16</v>
       </c>
       <c r="F871" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G871" t="n">
         <v>13</v>
@@ -23211,7 +23211,7 @@
         <v>8</v>
       </c>
       <c r="F876" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G876" t="n">
         <v>8</v>
@@ -23263,7 +23263,7 @@
         <v>9</v>
       </c>
       <c r="F878" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G878" t="n">
         <v>10</v>
@@ -23289,7 +23289,7 @@
         <v>13</v>
       </c>
       <c r="F879" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G879" t="n">
         <v>13</v>
@@ -23335,13 +23335,13 @@
         <v>11</v>
       </c>
       <c r="D881" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E881" t="n">
         <v>10</v>
       </c>
       <c r="F881" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G881" t="n">
         <v>10</v>
@@ -23419,7 +23419,7 @@
         <v>11</v>
       </c>
       <c r="F884" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G884" t="n">
         <v>10</v>
@@ -23439,13 +23439,13 @@
         <v>8</v>
       </c>
       <c r="D885" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
       </c>
       <c r="F885" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23471,7 +23471,7 @@
         <v>12</v>
       </c>
       <c r="F886" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G886" t="n">
         <v>12</v>
@@ -23491,7 +23491,7 @@
         <v>6</v>
       </c>
       <c r="D887" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E887" t="n">
         <v>7.000000000000001</v>
@@ -23543,13 +23543,13 @@
         <v>14</v>
       </c>
       <c r="D889" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
       </c>
       <c r="F889" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G889" t="n">
         <v>13</v>
@@ -23647,13 +23647,13 @@
         <v>14</v>
       </c>
       <c r="D893" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
       </c>
       <c r="F893" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G893" t="n">
         <v>12</v>
@@ -23673,13 +23673,13 @@
         <v>10</v>
       </c>
       <c r="D894" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
       </c>
       <c r="F894" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G894" t="n">
         <v>10</v>
@@ -23725,7 +23725,7 @@
         <v>9</v>
       </c>
       <c r="D896" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E896" t="n">
         <v>8</v>
@@ -23751,7 +23751,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D897" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
@@ -23777,7 +23777,7 @@
         <v>14</v>
       </c>
       <c r="D898" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E898" t="n">
         <v>14</v>
@@ -23803,13 +23803,13 @@
         <v>13</v>
       </c>
       <c r="D899" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
       </c>
       <c r="F899" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G899" t="n">
         <v>13</v>
@@ -23829,7 +23829,7 @@
         <v>14</v>
       </c>
       <c r="D900" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E900" t="n">
         <v>14</v>
@@ -23861,7 +23861,7 @@
         <v>13</v>
       </c>
       <c r="F901" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G901" t="n">
         <v>13</v>
@@ -23887,7 +23887,7 @@
         <v>14</v>
       </c>
       <c r="F902" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G902" t="n">
         <v>14</v>
@@ -23939,7 +23939,7 @@
         <v>8</v>
       </c>
       <c r="F904" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G904" t="n">
         <v>10</v>
@@ -24011,7 +24011,7 @@
         <v>15</v>
       </c>
       <c r="D907" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E907" t="n">
         <v>14</v>
@@ -24043,7 +24043,7 @@
         <v>14</v>
       </c>
       <c r="F908" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G908" t="n">
         <v>13</v>
@@ -24063,13 +24063,13 @@
         <v>9</v>
       </c>
       <c r="D909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E909" t="n">
         <v>10</v>
       </c>
       <c r="F909" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G909" t="n">
         <v>9</v>
@@ -24089,13 +24089,13 @@
         <v>13</v>
       </c>
       <c r="D910" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E910" t="n">
         <v>16</v>
       </c>
       <c r="F910" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G910" t="n">
         <v>13</v>
@@ -24147,7 +24147,7 @@
         <v>13</v>
       </c>
       <c r="F912" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G912" t="n">
         <v>12</v>
@@ -24173,7 +24173,7 @@
         <v>13</v>
       </c>
       <c r="F913" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G913" t="n">
         <v>11</v>
@@ -24193,13 +24193,13 @@
         <v>15</v>
       </c>
       <c r="D914" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E914" t="n">
         <v>16</v>
       </c>
       <c r="F914" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G914" t="n">
         <v>16</v>
@@ -24219,13 +24219,13 @@
         <v>9</v>
       </c>
       <c r="D915" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E915" t="n">
         <v>10</v>
       </c>
       <c r="F915" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G915" t="n">
         <v>9</v>
@@ -24245,7 +24245,7 @@
         <v>14</v>
       </c>
       <c r="D916" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E916" t="n">
         <v>14</v>
@@ -24271,7 +24271,7 @@
         <v>14</v>
       </c>
       <c r="D917" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -24329,7 +24329,7 @@
         <v>9</v>
       </c>
       <c r="F919" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G919" t="n">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>8</v>
       </c>
       <c r="F920" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G920" t="n">
         <v>8</v>
@@ -24381,7 +24381,7 @@
         <v>13</v>
       </c>
       <c r="F921" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G921" t="n">
         <v>12</v>
@@ -24401,13 +24401,13 @@
         <v>9</v>
       </c>
       <c r="D922" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E922" t="n">
         <v>11</v>
       </c>
       <c r="F922" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G922" t="n">
         <v>11</v>
@@ -24453,13 +24453,13 @@
         <v>13</v>
       </c>
       <c r="D924" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E924" t="n">
         <v>11</v>
       </c>
       <c r="F924" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G924" t="n">
         <v>11</v>
@@ -24511,7 +24511,7 @@
         <v>13</v>
       </c>
       <c r="F926" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G926" t="n">
         <v>13</v>
@@ -24537,7 +24537,7 @@
         <v>13</v>
       </c>
       <c r="F927" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G927" t="n">
         <v>12</v>
@@ -24563,7 +24563,7 @@
         <v>11</v>
       </c>
       <c r="F928" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G928" t="n">
         <v>11</v>
@@ -24589,7 +24589,7 @@
         <v>13</v>
       </c>
       <c r="F929" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G929" t="n">
         <v>12</v>
@@ -24615,7 +24615,7 @@
         <v>9</v>
       </c>
       <c r="F930" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G930" t="n">
         <v>10</v>
@@ -24641,7 +24641,7 @@
         <v>16</v>
       </c>
       <c r="F931" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G931" t="n">
         <v>15</v>
@@ -24661,7 +24661,7 @@
         <v>9</v>
       </c>
       <c r="D932" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E932" t="n">
         <v>7.000000000000001</v>
@@ -24713,13 +24713,13 @@
         <v>12</v>
       </c>
       <c r="D934" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
       </c>
       <c r="F934" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G934" t="n">
         <v>12</v>
@@ -24771,7 +24771,7 @@
         <v>8</v>
       </c>
       <c r="F936" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>13</v>
       </c>
       <c r="F937" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G937" t="n">
         <v>12</v>
@@ -24869,13 +24869,13 @@
         <v>11</v>
       </c>
       <c r="D940" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E940" t="n">
         <v>10</v>
       </c>
       <c r="F940" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G940" t="n">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>14</v>
       </c>
       <c r="F941" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G941" t="n">
         <v>13</v>
@@ -24921,13 +24921,13 @@
         <v>11</v>
       </c>
       <c r="D942" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E942" t="n">
         <v>11</v>
       </c>
       <c r="F942" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G942" t="n">
         <v>11</v>
@@ -24947,7 +24947,7 @@
         <v>14</v>
       </c>
       <c r="D943" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E943" t="n">
         <v>14</v>
@@ -24999,7 +24999,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D945" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -25025,7 +25025,7 @@
         <v>12</v>
       </c>
       <c r="D946" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E946" t="n">
         <v>14</v>
@@ -25129,13 +25129,13 @@
         <v>15</v>
       </c>
       <c r="D950" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
       </c>
       <c r="F950" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G950" t="n">
         <v>13</v>
@@ -25155,13 +25155,13 @@
         <v>13</v>
       </c>
       <c r="D951" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E951" t="n">
         <v>11</v>
       </c>
       <c r="F951" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G951" t="n">
         <v>10</v>
@@ -25181,7 +25181,7 @@
         <v>10</v>
       </c>
       <c r="D952" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E952" t="n">
         <v>8</v>
@@ -25265,7 +25265,7 @@
         <v>13</v>
       </c>
       <c r="F955" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G955" t="n">
         <v>12</v>
@@ -25291,7 +25291,7 @@
         <v>10</v>
       </c>
       <c r="F956" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G956" t="n">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>14</v>
       </c>
       <c r="F957" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G957" t="n">
         <v>13</v>
@@ -25343,7 +25343,7 @@
         <v>8</v>
       </c>
       <c r="F958" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G958" t="n">
         <v>9</v>
@@ -25415,13 +25415,13 @@
         <v>11</v>
       </c>
       <c r="D961" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E961" t="n">
         <v>10</v>
       </c>
       <c r="F961" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G961" t="n">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>8</v>
       </c>
       <c r="F962" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G962" t="n">
         <v>7.000000000000001</v>
